--- a/natmiOut/OldD2/LR-pairs_lrc2p/Vegfb-Flt1.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Vegfb-Flt1.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.977346302245013</v>
+        <v>1.3034235</v>
       </c>
       <c r="H2">
-        <v>0.977346302245013</v>
+        <v>2.606847</v>
       </c>
       <c r="I2">
-        <v>0.04093293843686223</v>
+        <v>0.05019481880249994</v>
       </c>
       <c r="J2">
-        <v>0.04093293843686223</v>
+        <v>0.03724108001642075</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>117.640243767728</v>
+        <v>117.8215865</v>
       </c>
       <c r="N2">
-        <v>117.640243767728</v>
+        <v>235.643173</v>
       </c>
       <c r="O2">
-        <v>0.5413660146841967</v>
+        <v>0.532002292588051</v>
       </c>
       <c r="P2">
-        <v>0.5413660146841967</v>
+        <v>0.4324630118342522</v>
       </c>
       <c r="Q2">
-        <v>114.9752572415909</v>
+        <v>153.5714246513828</v>
       </c>
       <c r="R2">
-        <v>114.9752572415909</v>
+        <v>614.285698605531</v>
       </c>
       <c r="S2">
-        <v>0.02215970175087768</v>
+        <v>0.02670375867897178</v>
       </c>
       <c r="T2">
-        <v>0.02215970175087768</v>
+        <v>0.0161053896278617</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.977346302245013</v>
+        <v>1.3034235</v>
       </c>
       <c r="H3">
-        <v>0.977346302245013</v>
+        <v>2.606847</v>
       </c>
       <c r="I3">
-        <v>0.04093293843686223</v>
+        <v>0.05019481880249994</v>
       </c>
       <c r="J3">
-        <v>0.04093293843686223</v>
+        <v>0.03724108001642075</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.196268492051739</v>
+        <v>0.235393</v>
       </c>
       <c r="N3">
-        <v>0.196268492051739</v>
+        <v>0.706179</v>
       </c>
       <c r="O3">
-        <v>0.0009032035972308573</v>
+        <v>0.00106287497375686</v>
       </c>
       <c r="P3">
-        <v>0.0009032035972308573</v>
+        <v>0.001296011649079689</v>
       </c>
       <c r="Q3">
-        <v>0.1918222849539718</v>
+        <v>0.3068167679355</v>
       </c>
       <c r="R3">
-        <v>0.1918222849539718</v>
+        <v>1.840900607613</v>
       </c>
       <c r="S3">
-        <v>3.697077724140319E-05</v>
+        <v>5.335081671743747E-05</v>
       </c>
       <c r="T3">
-        <v>3.697077724140319E-05</v>
+        <v>4.826487352559011E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.977346302245013</v>
+        <v>1.3034235</v>
       </c>
       <c r="H4">
-        <v>0.977346302245013</v>
+        <v>2.606847</v>
       </c>
       <c r="I4">
-        <v>0.04093293843686223</v>
+        <v>0.05019481880249994</v>
       </c>
       <c r="J4">
-        <v>0.04093293843686223</v>
+        <v>0.03724108001642075</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.342846141314817</v>
+        <v>0.5852593333333332</v>
       </c>
       <c r="N4">
-        <v>0.342846141314817</v>
+        <v>1.755778</v>
       </c>
       <c r="O4">
-        <v>0.001577736013025622</v>
+        <v>0.002642633802014605</v>
       </c>
       <c r="P4">
-        <v>0.001577736013025622</v>
+        <v>0.003222283218840886</v>
       </c>
       <c r="Q4">
-        <v>0.3350794084530075</v>
+        <v>0.7628407686609999</v>
       </c>
       <c r="R4">
-        <v>0.3350794084530075</v>
+        <v>4.577044611966</v>
       </c>
       <c r="S4">
-        <v>6.458137109079822E-05</v>
+        <v>0.0001326465248534846</v>
       </c>
       <c r="T4">
-        <v>6.458137109079822E-05</v>
+        <v>0.0001200013071884232</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.977346302245013</v>
+        <v>1.3034235</v>
       </c>
       <c r="H5">
-        <v>0.977346302245013</v>
+        <v>2.606847</v>
       </c>
       <c r="I5">
-        <v>0.04093293843686223</v>
+        <v>0.05019481880249994</v>
       </c>
       <c r="J5">
-        <v>0.04093293843686223</v>
+        <v>0.03724108001642075</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.34075291887126</v>
+        <v>2.51651</v>
       </c>
       <c r="N5">
-        <v>2.34075291887126</v>
+        <v>7.549530000000001</v>
       </c>
       <c r="O5">
-        <v>0.01077185866387472</v>
+        <v>0.01136285063790714</v>
       </c>
       <c r="P5">
-        <v>0.01077185866387472</v>
+        <v>0.01385523900466678</v>
       </c>
       <c r="Q5">
-        <v>2.287726209728047</v>
+        <v>3.280078271985</v>
       </c>
       <c r="R5">
-        <v>2.287726209728047</v>
+        <v>19.68046963191</v>
       </c>
       <c r="S5">
-        <v>0.0004409238275389649</v>
+        <v>0.0005703562288496199</v>
       </c>
       <c r="T5">
-        <v>0.0004409238275389649</v>
+        <v>0.0005159840644194295</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.977346302245013</v>
+        <v>1.3034235</v>
       </c>
       <c r="H6">
-        <v>0.977346302245013</v>
+        <v>2.606847</v>
       </c>
       <c r="I6">
-        <v>0.04093293843686223</v>
+        <v>0.05019481880249994</v>
       </c>
       <c r="J6">
-        <v>0.04093293843686223</v>
+        <v>0.03724108001642075</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>95.10111512403751</v>
+        <v>98.61275733333333</v>
       </c>
       <c r="N6">
-        <v>95.10111512403751</v>
+        <v>295.838272</v>
       </c>
       <c r="O6">
-        <v>0.437643701150225</v>
+        <v>0.4452682614298567</v>
       </c>
       <c r="P6">
-        <v>0.437643701150225</v>
+        <v>0.5429357808085564</v>
       </c>
       <c r="Q6">
-        <v>92.94672320585533</v>
+        <v>128.534185308064</v>
       </c>
       <c r="R6">
-        <v>92.94672320585533</v>
+        <v>771.205111848384</v>
       </c>
       <c r="S6">
-        <v>0.01791404267646269</v>
+        <v>0.02235015970097583</v>
       </c>
       <c r="T6">
-        <v>0.01791404267646269</v>
+        <v>0.02021951485686933</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.977346302245013</v>
+        <v>1.3034235</v>
       </c>
       <c r="H7">
-        <v>0.977346302245013</v>
+        <v>2.606847</v>
       </c>
       <c r="I7">
-        <v>0.04093293843686223</v>
+        <v>0.05019481880249994</v>
       </c>
       <c r="J7">
-        <v>0.04093293843686223</v>
+        <v>0.03724108001642075</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.68137581918618</v>
+        <v>1.696687</v>
       </c>
       <c r="N7">
-        <v>1.68137581918618</v>
+        <v>3.393374</v>
       </c>
       <c r="O7">
-        <v>0.007737485891447149</v>
+        <v>0.007661086568413697</v>
       </c>
       <c r="P7">
-        <v>0.007737485891447149</v>
+        <v>0.006227673484603961</v>
       </c>
       <c r="Q7">
-        <v>1.643286439565793</v>
+        <v>2.2115017079445</v>
       </c>
       <c r="R7">
-        <v>1.643286439565793</v>
+        <v>8.846006831778</v>
       </c>
       <c r="S7">
-        <v>0.0003167180336506962</v>
+        <v>0.0003845468521317916</v>
       </c>
       <c r="T7">
-        <v>0.0003167180336506962</v>
+        <v>0.0002319252865562779</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.45222267226588</v>
+        <v>4.086202333333333</v>
       </c>
       <c r="H8">
-        <v>3.45222267226588</v>
+        <v>12.258607</v>
       </c>
       <c r="I8">
-        <v>0.1445850030737356</v>
+        <v>0.1573595885849988</v>
       </c>
       <c r="J8">
-        <v>0.1445850030737356</v>
+        <v>0.1751248785129528</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>117.640243767728</v>
+        <v>117.8215865</v>
       </c>
       <c r="N8">
-        <v>117.640243767728</v>
+        <v>235.643173</v>
       </c>
       <c r="O8">
-        <v>0.5413660146841967</v>
+        <v>0.532002292588051</v>
       </c>
       <c r="P8">
-        <v>0.5413660146841967</v>
+        <v>0.4324630118342522</v>
       </c>
       <c r="Q8">
-        <v>406.1203167058355</v>
+        <v>481.4428416733352</v>
       </c>
       <c r="R8">
-        <v>406.1203167058355</v>
+        <v>2888.657050040011</v>
       </c>
       <c r="S8">
-        <v>0.07827340689713054</v>
+        <v>0.08371566188793184</v>
       </c>
       <c r="T8">
-        <v>0.07827340689713054</v>
+        <v>0.0757350324088191</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.45222267226588</v>
+        <v>4.086202333333333</v>
       </c>
       <c r="H9">
-        <v>3.45222267226588</v>
+        <v>12.258607</v>
       </c>
       <c r="I9">
-        <v>0.1445850030737356</v>
+        <v>0.1573595885849988</v>
       </c>
       <c r="J9">
-        <v>0.1445850030737356</v>
+        <v>0.1751248785129528</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.196268492051739</v>
+        <v>0.235393</v>
       </c>
       <c r="N9">
-        <v>0.196268492051739</v>
+        <v>0.706179</v>
       </c>
       <c r="O9">
-        <v>0.0009032035972308573</v>
+        <v>0.00106287497375686</v>
       </c>
       <c r="P9">
-        <v>0.0009032035972308573</v>
+        <v>0.001296011649079689</v>
       </c>
       <c r="Q9">
-        <v>0.677562538112449</v>
+        <v>0.9618634258503334</v>
       </c>
       <c r="R9">
-        <v>0.677562538112449</v>
+        <v>8.656770832653001</v>
       </c>
       <c r="S9">
-        <v>0.0001305896948818325</v>
+        <v>0.0001672535685876708</v>
       </c>
       <c r="T9">
-        <v>0.0001305896948818325</v>
+        <v>0.0002269638825964522</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.45222267226588</v>
+        <v>4.086202333333333</v>
       </c>
       <c r="H10">
-        <v>3.45222267226588</v>
+        <v>12.258607</v>
       </c>
       <c r="I10">
-        <v>0.1445850030737356</v>
+        <v>0.1573595885849988</v>
       </c>
       <c r="J10">
-        <v>0.1445850030737356</v>
+        <v>0.1751248785129528</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.342846141314817</v>
+        <v>0.5852593333333332</v>
       </c>
       <c r="N10">
-        <v>0.342846141314817</v>
+        <v>1.755778</v>
       </c>
       <c r="O10">
-        <v>0.001577736013025622</v>
+        <v>0.002642633802014605</v>
       </c>
       <c r="P10">
-        <v>0.001577736013025622</v>
+        <v>0.003222283218840886</v>
       </c>
       <c r="Q10">
-        <v>1.183581222145883</v>
+        <v>2.391488053471778</v>
       </c>
       <c r="R10">
-        <v>1.183581222145883</v>
+        <v>21.523392481246</v>
       </c>
       <c r="S10">
-        <v>0.0002281169662928528</v>
+        <v>0.0004158437678658293</v>
       </c>
       <c r="T10">
-        <v>0.0002281169662928528</v>
+        <v>0.0005643019572338367</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>3.45222267226588</v>
+        <v>4.086202333333333</v>
       </c>
       <c r="H11">
-        <v>3.45222267226588</v>
+        <v>12.258607</v>
       </c>
       <c r="I11">
-        <v>0.1445850030737356</v>
+        <v>0.1573595885849988</v>
       </c>
       <c r="J11">
-        <v>0.1445850030737356</v>
+        <v>0.1751248785129528</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.34075291887126</v>
+        <v>2.51651</v>
       </c>
       <c r="N11">
-        <v>2.34075291887126</v>
+        <v>7.549530000000001</v>
       </c>
       <c r="O11">
-        <v>0.01077185866387472</v>
+        <v>0.01136285063790714</v>
       </c>
       <c r="P11">
-        <v>0.01077185866387472</v>
+        <v>0.01385523900466678</v>
       </c>
       <c r="Q11">
-        <v>8.0808002966999</v>
+        <v>10.28296903385667</v>
       </c>
       <c r="R11">
-        <v>8.0808002966999</v>
+        <v>92.54672130471002</v>
       </c>
       <c r="S11">
-        <v>0.001557449218026171</v>
+        <v>0.001788053501533858</v>
       </c>
       <c r="T11">
-        <v>0.001557449218026171</v>
+        <v>0.002426397047460196</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>3.45222267226588</v>
+        <v>4.086202333333333</v>
       </c>
       <c r="H12">
-        <v>3.45222267226588</v>
+        <v>12.258607</v>
       </c>
       <c r="I12">
-        <v>0.1445850030737356</v>
+        <v>0.1573595885849988</v>
       </c>
       <c r="J12">
-        <v>0.1445850030737356</v>
+        <v>0.1751248785129528</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>95.10111512403751</v>
+        <v>98.61275733333333</v>
       </c>
       <c r="N12">
-        <v>95.10111512403751</v>
+        <v>295.838272</v>
       </c>
       <c r="O12">
-        <v>0.437643701150225</v>
+        <v>0.4452682614298567</v>
       </c>
       <c r="P12">
-        <v>0.437643701150225</v>
+        <v>0.5429357808085564</v>
       </c>
       <c r="Q12">
-        <v>328.3102257889699</v>
+        <v>402.9516791119005</v>
       </c>
       <c r="R12">
-        <v>328.3102257889699</v>
+        <v>3626.565112007105</v>
       </c>
       <c r="S12">
-        <v>0.06327671587600629</v>
+        <v>0.07006723042855993</v>
       </c>
       <c r="T12">
-        <v>0.06327671587600629</v>
+        <v>0.09508156265443363</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>3.45222267226588</v>
+        <v>4.086202333333333</v>
       </c>
       <c r="H13">
-        <v>3.45222267226588</v>
+        <v>12.258607</v>
       </c>
       <c r="I13">
-        <v>0.1445850030737356</v>
+        <v>0.1573595885849988</v>
       </c>
       <c r="J13">
-        <v>0.1445850030737356</v>
+        <v>0.1751248785129528</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.68137581918618</v>
+        <v>1.696687</v>
       </c>
       <c r="N13">
-        <v>1.68137581918618</v>
+        <v>3.393374</v>
       </c>
       <c r="O13">
-        <v>0.007737485891447149</v>
+        <v>0.007661086568413697</v>
       </c>
       <c r="P13">
-        <v>0.007737485891447149</v>
+        <v>0.006227673484603961</v>
       </c>
       <c r="Q13">
-        <v>5.804483723594148</v>
+        <v>6.933006378336334</v>
       </c>
       <c r="R13">
-        <v>5.804483723594148</v>
+        <v>41.59803827001801</v>
       </c>
       <c r="S13">
-        <v>0.001118724421397872</v>
+        <v>0.001205545430519639</v>
       </c>
       <c r="T13">
-        <v>0.001118724421397872</v>
+        <v>0.001090620562409606</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>4.90702501370562</v>
+        <v>5.424432333333333</v>
       </c>
       <c r="H14">
-        <v>4.90702501370562</v>
+        <v>16.273297</v>
       </c>
       <c r="I14">
-        <v>0.2055146188539028</v>
+        <v>0.2088948051635471</v>
       </c>
       <c r="J14">
-        <v>0.2055146188539028</v>
+        <v>0.232478222046779</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>117.640243767728</v>
+        <v>117.8215865</v>
       </c>
       <c r="N14">
-        <v>117.640243767728</v>
+        <v>235.643173</v>
       </c>
       <c r="O14">
-        <v>0.5413660146841967</v>
+        <v>0.532002292588051</v>
       </c>
       <c r="P14">
-        <v>0.5413660146841967</v>
+        <v>0.4324630118342522</v>
       </c>
       <c r="Q14">
-        <v>577.263618786668</v>
+        <v>639.1152233752301</v>
       </c>
       <c r="R14">
-        <v>577.263618786668</v>
+        <v>3834.691340251381</v>
       </c>
       <c r="S14">
-        <v>0.111258630168279</v>
+        <v>0.1111325152567413</v>
       </c>
       <c r="T14">
-        <v>0.111258630168279</v>
+        <v>0.1005382320922221</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>4.90702501370562</v>
+        <v>5.424432333333333</v>
       </c>
       <c r="H15">
-        <v>4.90702501370562</v>
+        <v>16.273297</v>
       </c>
       <c r="I15">
-        <v>0.2055146188539028</v>
+        <v>0.2088948051635471</v>
       </c>
       <c r="J15">
-        <v>0.2055146188539028</v>
+        <v>0.232478222046779</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.196268492051739</v>
+        <v>0.235393</v>
       </c>
       <c r="N15">
-        <v>0.196268492051739</v>
+        <v>0.706179</v>
       </c>
       <c r="O15">
-        <v>0.0009032035972308573</v>
+        <v>0.00106287497375686</v>
       </c>
       <c r="P15">
-        <v>0.0009032035972308573</v>
+        <v>0.001296011649079689</v>
       </c>
       <c r="Q15">
-        <v>0.9630943999001659</v>
+        <v>1.276873400240333</v>
       </c>
       <c r="R15">
-        <v>0.9630943999001659</v>
+        <v>11.491860602163</v>
       </c>
       <c r="S15">
-        <v>0.0001856215430323736</v>
+        <v>0.0002220290605561495</v>
       </c>
       <c r="T15">
-        <v>0.0001856215430323736</v>
+        <v>0.0003012944839299602</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>4.90702501370562</v>
+        <v>5.424432333333333</v>
       </c>
       <c r="H16">
-        <v>4.90702501370562</v>
+        <v>16.273297</v>
       </c>
       <c r="I16">
-        <v>0.2055146188539028</v>
+        <v>0.2088948051635471</v>
       </c>
       <c r="J16">
-        <v>0.2055146188539028</v>
+        <v>0.232478222046779</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.342846141314817</v>
+        <v>0.5852593333333332</v>
       </c>
       <c r="N16">
-        <v>0.342846141314817</v>
+        <v>1.755778</v>
       </c>
       <c r="O16">
-        <v>0.001577736013025622</v>
+        <v>0.002642633802014605</v>
       </c>
       <c r="P16">
-        <v>0.001577736013025622</v>
+        <v>0.003222283218840886</v>
       </c>
       <c r="Q16">
-        <v>1.682354591284259</v>
+        <v>3.174699651118444</v>
       </c>
       <c r="R16">
-        <v>1.682354591284259</v>
+        <v>28.572296860066</v>
       </c>
       <c r="S16">
-        <v>0.0003242478153690369</v>
+        <v>0.0005520324731904446</v>
       </c>
       <c r="T16">
-        <v>0.0003242478153690369</v>
+        <v>0.0007491106736473012</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>4.90702501370562</v>
+        <v>5.424432333333333</v>
       </c>
       <c r="H17">
-        <v>4.90702501370562</v>
+        <v>16.273297</v>
       </c>
       <c r="I17">
-        <v>0.2055146188539028</v>
+        <v>0.2088948051635471</v>
       </c>
       <c r="J17">
-        <v>0.2055146188539028</v>
+        <v>0.232478222046779</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>2.34075291887126</v>
+        <v>2.51651</v>
       </c>
       <c r="N17">
-        <v>2.34075291887126</v>
+        <v>7.549530000000001</v>
       </c>
       <c r="O17">
-        <v>0.01077185866387472</v>
+        <v>0.01136285063790714</v>
       </c>
       <c r="P17">
-        <v>0.01077185866387472</v>
+        <v>0.01385523900466678</v>
       </c>
       <c r="Q17">
-        <v>11.48613312380571</v>
+        <v>13.65063821115667</v>
       </c>
       <c r="R17">
-        <v>11.48613312380571</v>
+        <v>122.85574390041</v>
       </c>
       <c r="S17">
-        <v>0.002213774427654324</v>
+        <v>0.002373640470108099</v>
       </c>
       <c r="T17">
-        <v>0.002213774427654324</v>
+        <v>0.003221041329838118</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>4.90702501370562</v>
+        <v>5.424432333333333</v>
       </c>
       <c r="H18">
-        <v>4.90702501370562</v>
+        <v>16.273297</v>
       </c>
       <c r="I18">
-        <v>0.2055146188539028</v>
+        <v>0.2088948051635471</v>
       </c>
       <c r="J18">
-        <v>0.2055146188539028</v>
+        <v>0.232478222046779</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>95.10111512403751</v>
+        <v>98.61275733333333</v>
       </c>
       <c r="N18">
-        <v>95.10111512403751</v>
+        <v>295.838272</v>
       </c>
       <c r="O18">
-        <v>0.437643701150225</v>
+        <v>0.4452682614298567</v>
       </c>
       <c r="P18">
-        <v>0.437643701150225</v>
+        <v>0.5429357808085564</v>
       </c>
       <c r="Q18">
-        <v>466.6635507449499</v>
+        <v>534.918229358087</v>
       </c>
       <c r="R18">
-        <v>466.6635507449499</v>
+        <v>4814.264064222784</v>
       </c>
       <c r="S18">
-        <v>0.08994217843569985</v>
+        <v>0.09301422671690127</v>
       </c>
       <c r="T18">
-        <v>0.08994217843569985</v>
+        <v>0.1262207450079529</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>4.90702501370562</v>
+        <v>5.424432333333333</v>
       </c>
       <c r="H19">
-        <v>4.90702501370562</v>
+        <v>16.273297</v>
       </c>
       <c r="I19">
-        <v>0.2055146188539028</v>
+        <v>0.2088948051635471</v>
       </c>
       <c r="J19">
-        <v>0.2055146188539028</v>
+        <v>0.232478222046779</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>1.68137581918618</v>
+        <v>1.696687</v>
       </c>
       <c r="N19">
-        <v>1.68137581918618</v>
+        <v>3.393374</v>
       </c>
       <c r="O19">
-        <v>0.007737485891447149</v>
+        <v>0.007661086568413697</v>
       </c>
       <c r="P19">
-        <v>0.007737485891447149</v>
+        <v>0.006227673484603961</v>
       </c>
       <c r="Q19">
-        <v>8.250553202186364</v>
+        <v>9.203563822346332</v>
       </c>
       <c r="R19">
-        <v>8.250553202186364</v>
+        <v>55.221382934078</v>
       </c>
       <c r="S19">
-        <v>0.001590166463868211</v>
+        <v>0.001600361186049847</v>
       </c>
       <c r="T19">
-        <v>0.001590166463868211</v>
+        <v>0.001447798459188597</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>6.20511082585662</v>
+        <v>6.646854666666667</v>
       </c>
       <c r="H20">
-        <v>6.20511082585662</v>
+        <v>19.940564</v>
       </c>
       <c r="I20">
-        <v>0.2598806777549175</v>
+        <v>0.2559702702919538</v>
       </c>
       <c r="J20">
-        <v>0.2598806777549175</v>
+        <v>0.2848683254124845</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>117.640243767728</v>
+        <v>117.8215865</v>
       </c>
       <c r="N20">
-        <v>117.640243767728</v>
+        <v>235.643173</v>
       </c>
       <c r="O20">
-        <v>0.5413660146841967</v>
+        <v>0.532002292588051</v>
       </c>
       <c r="P20">
-        <v>0.5413660146841967</v>
+        <v>0.4324630118342522</v>
       </c>
       <c r="Q20">
-        <v>729.9707501595408</v>
+        <v>783.1429620615953</v>
       </c>
       <c r="R20">
-        <v>729.9707501595408</v>
+        <v>4698.857772369573</v>
       </c>
       <c r="S20">
-        <v>0.1406905668096076</v>
+        <v>0.1361767706297025</v>
       </c>
       <c r="T20">
-        <v>0.1406905668096076</v>
+        <v>0.1231950139840629</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>6.20511082585662</v>
+        <v>6.646854666666667</v>
       </c>
       <c r="H21">
-        <v>6.20511082585662</v>
+        <v>19.940564</v>
       </c>
       <c r="I21">
-        <v>0.2598806777549175</v>
+        <v>0.2559702702919538</v>
       </c>
       <c r="J21">
-        <v>0.2598806777549175</v>
+        <v>0.2848683254124845</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>0.196268492051739</v>
+        <v>0.235393</v>
       </c>
       <c r="N21">
-        <v>0.196268492051739</v>
+        <v>0.706179</v>
       </c>
       <c r="O21">
-        <v>0.0009032035972308573</v>
+        <v>0.00106287497375686</v>
       </c>
       <c r="P21">
-        <v>0.0009032035972308573</v>
+        <v>0.001296011649079689</v>
       </c>
       <c r="Q21">
-        <v>1.2178677448048</v>
+        <v>1.564623060550667</v>
       </c>
       <c r="R21">
-        <v>1.2178677448048</v>
+        <v>14.081607544956</v>
       </c>
       <c r="S21">
-        <v>0.0002347251629990347</v>
+        <v>0.0002720643943190968</v>
       </c>
       <c r="T21">
-        <v>0.0002347251629990347</v>
+        <v>0.0003691926681884035</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>6.20511082585662</v>
+        <v>6.646854666666667</v>
       </c>
       <c r="H22">
-        <v>6.20511082585662</v>
+        <v>19.940564</v>
       </c>
       <c r="I22">
-        <v>0.2598806777549175</v>
+        <v>0.2559702702919538</v>
       </c>
       <c r="J22">
-        <v>0.2598806777549175</v>
+        <v>0.2848683254124845</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.342846141314817</v>
+        <v>0.5852593333333332</v>
       </c>
       <c r="N22">
-        <v>0.342846141314817</v>
+        <v>1.755778</v>
       </c>
       <c r="O22">
-        <v>0.001577736013025622</v>
+        <v>0.002642633802014605</v>
       </c>
       <c r="P22">
-        <v>0.001577736013025622</v>
+        <v>0.003222283218840886</v>
       </c>
       <c r="Q22">
-        <v>2.12739830307574</v>
+        <v>3.890133730976888</v>
       </c>
       <c r="R22">
-        <v>2.12739830307574</v>
+        <v>35.011203578792</v>
       </c>
       <c r="S22">
-        <v>0.0004100231043834398</v>
+        <v>0.0006764356885843321</v>
       </c>
       <c r="T22">
-        <v>0.0004100231043834398</v>
+        <v>0.0009179264245559536</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>6.20511082585662</v>
+        <v>6.646854666666667</v>
       </c>
       <c r="H23">
-        <v>6.20511082585662</v>
+        <v>19.940564</v>
       </c>
       <c r="I23">
-        <v>0.2598806777549175</v>
+        <v>0.2559702702919538</v>
       </c>
       <c r="J23">
-        <v>0.2598806777549175</v>
+        <v>0.2848683254124845</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>2.34075291887126</v>
+        <v>2.51651</v>
       </c>
       <c r="N23">
-        <v>2.34075291887126</v>
+        <v>7.549530000000001</v>
       </c>
       <c r="O23">
-        <v>0.01077185866387472</v>
+        <v>0.01136285063790714</v>
       </c>
       <c r="P23">
-        <v>0.01077185866387472</v>
+        <v>0.01385523900466678</v>
       </c>
       <c r="Q23">
-        <v>14.52463127754354</v>
+        <v>16.72687623721334</v>
       </c>
       <c r="R23">
-        <v>14.52463127754354</v>
+        <v>150.54188613492</v>
       </c>
       <c r="S23">
-        <v>0.002799397930247942</v>
+        <v>0.002908551949072191</v>
       </c>
       <c r="T23">
-        <v>0.002799397930247942</v>
+        <v>0.003946918733449166</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>6.20511082585662</v>
+        <v>6.646854666666667</v>
       </c>
       <c r="H24">
-        <v>6.20511082585662</v>
+        <v>19.940564</v>
       </c>
       <c r="I24">
-        <v>0.2598806777549175</v>
+        <v>0.2559702702919538</v>
       </c>
       <c r="J24">
-        <v>0.2598806777549175</v>
+        <v>0.2848683254124845</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>95.10111512403751</v>
+        <v>98.61275733333333</v>
       </c>
       <c r="N24">
-        <v>95.10111512403751</v>
+        <v>295.838272</v>
       </c>
       <c r="O24">
-        <v>0.437643701150225</v>
+        <v>0.4452682614298567</v>
       </c>
       <c r="P24">
-        <v>0.437643701150225</v>
+        <v>0.5429357808085564</v>
       </c>
       <c r="Q24">
-        <v>590.1129590072019</v>
+        <v>655.4646662739343</v>
       </c>
       <c r="R24">
-        <v>590.1129590072019</v>
+        <v>5899.181996465409</v>
       </c>
       <c r="S24">
-        <v>0.113735141670091</v>
+        <v>0.1139754372306288</v>
       </c>
       <c r="T24">
-        <v>0.113735141670091</v>
+        <v>0.1546652066854532</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>6.20511082585662</v>
+        <v>6.646854666666667</v>
       </c>
       <c r="H25">
-        <v>6.20511082585662</v>
+        <v>19.940564</v>
       </c>
       <c r="I25">
-        <v>0.2598806777549175</v>
+        <v>0.2559702702919538</v>
       </c>
       <c r="J25">
-        <v>0.2598806777549175</v>
+        <v>0.2848683254124845</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>1.68137581918618</v>
+        <v>1.696687</v>
       </c>
       <c r="N25">
-        <v>1.68137581918618</v>
+        <v>3.393374</v>
       </c>
       <c r="O25">
-        <v>0.007737485891447149</v>
+        <v>0.007661086568413697</v>
       </c>
       <c r="P25">
-        <v>0.007737485891447149</v>
+        <v>0.006227673484603961</v>
       </c>
       <c r="Q25">
-        <v>10.43312329796571</v>
+        <v>11.27763190382267</v>
       </c>
       <c r="R25">
-        <v>10.43312329796571</v>
+        <v>67.66579142293601</v>
       </c>
       <c r="S25">
-        <v>0.002010823077588397</v>
+        <v>0.001961010399646911</v>
       </c>
       <c r="T25">
-        <v>0.002010823077588397</v>
+        <v>0.001774066916774863</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>1.73897153457121</v>
+        <v>1.907159333333333</v>
       </c>
       <c r="H26">
-        <v>1.73897153457121</v>
+        <v>5.721477999999999</v>
       </c>
       <c r="I26">
-        <v>0.07283110869151742</v>
+        <v>0.07344467639578636</v>
       </c>
       <c r="J26">
-        <v>0.07283110869151742</v>
+        <v>0.08173629676394162</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>117.640243767728</v>
+        <v>117.8215865</v>
       </c>
       <c r="N26">
-        <v>117.640243767728</v>
+        <v>235.643173</v>
       </c>
       <c r="O26">
-        <v>0.5413660146841967</v>
+        <v>0.532002292588051</v>
       </c>
       <c r="P26">
-        <v>0.5413660146841967</v>
+        <v>0.4324630118342522</v>
       </c>
       <c r="Q26">
-        <v>204.5730352320972</v>
+        <v>224.7045383616156</v>
       </c>
       <c r="R26">
-        <v>204.5730352320972</v>
+        <v>1348.227230169694</v>
       </c>
       <c r="S26">
-        <v>0.03942828705735834</v>
+        <v>0.03907273622094586</v>
       </c>
       <c r="T26">
-        <v>0.03942828705735834</v>
+        <v>0.03534792507471243</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>1.73897153457121</v>
+        <v>1.907159333333333</v>
       </c>
       <c r="H27">
-        <v>1.73897153457121</v>
+        <v>5.721477999999999</v>
       </c>
       <c r="I27">
-        <v>0.07283110869151742</v>
+        <v>0.07344467639578636</v>
       </c>
       <c r="J27">
-        <v>0.07283110869151742</v>
+        <v>0.08173629676394162</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>0.196268492051739</v>
+        <v>0.235393</v>
       </c>
       <c r="N27">
-        <v>0.196268492051739</v>
+        <v>0.706179</v>
       </c>
       <c r="O27">
-        <v>0.0009032035972308573</v>
+        <v>0.00106287497375686</v>
       </c>
       <c r="P27">
-        <v>0.0009032035972308573</v>
+        <v>0.001296011649079689</v>
       </c>
       <c r="Q27">
-        <v>0.3413053208111899</v>
+        <v>0.4489319569513333</v>
       </c>
       <c r="R27">
-        <v>0.3413053208111899</v>
+        <v>4.040387612561999</v>
       </c>
       <c r="S27">
-        <v>6.578131936049009E-05</v>
+        <v>7.80625084967525E-05</v>
       </c>
       <c r="T27">
-        <v>6.578131936049009E-05</v>
+        <v>0.0001059311927587028</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>1.73897153457121</v>
+        <v>1.907159333333333</v>
       </c>
       <c r="H28">
-        <v>1.73897153457121</v>
+        <v>5.721477999999999</v>
       </c>
       <c r="I28">
-        <v>0.07283110869151742</v>
+        <v>0.07344467639578636</v>
       </c>
       <c r="J28">
-        <v>0.07283110869151742</v>
+        <v>0.08173629676394162</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>0.342846141314817</v>
+        <v>0.5852593333333332</v>
       </c>
       <c r="N28">
-        <v>0.342846141314817</v>
+        <v>1.755778</v>
       </c>
       <c r="O28">
-        <v>0.001577736013025622</v>
+        <v>0.002642633802014605</v>
       </c>
       <c r="P28">
-        <v>0.001577736013025622</v>
+        <v>0.003222283218840886</v>
       </c>
       <c r="Q28">
-        <v>0.5961996804840453</v>
+        <v>1.116182799987111</v>
       </c>
       <c r="R28">
-        <v>0.5961996804840453</v>
+        <v>10.045645199884</v>
       </c>
       <c r="S28">
-        <v>0.0001149082630511904</v>
+        <v>0.0001940873844215292</v>
       </c>
       <c r="T28">
-        <v>0.0001149082630511904</v>
+        <v>0.0002633774974326477</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>1.73897153457121</v>
+        <v>1.907159333333333</v>
       </c>
       <c r="H29">
-        <v>1.73897153457121</v>
+        <v>5.721477999999999</v>
       </c>
       <c r="I29">
-        <v>0.07283110869151742</v>
+        <v>0.07344467639578636</v>
       </c>
       <c r="J29">
-        <v>0.07283110869151742</v>
+        <v>0.08173629676394162</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>2.34075291887126</v>
+        <v>2.51651</v>
       </c>
       <c r="N29">
-        <v>2.34075291887126</v>
+        <v>7.549530000000001</v>
       </c>
       <c r="O29">
-        <v>0.01077185866387472</v>
+        <v>0.01136285063790714</v>
       </c>
       <c r="P29">
-        <v>0.01077185866387472</v>
+        <v>0.01385523900466678</v>
       </c>
       <c r="Q29">
-        <v>4.070502695381594</v>
+        <v>4.799385533926666</v>
       </c>
       <c r="R29">
-        <v>4.070502695381594</v>
+        <v>43.19446980534</v>
       </c>
       <c r="S29">
-        <v>0.0007845264091583233</v>
+        <v>0.0008345408880347446</v>
       </c>
       <c r="T29">
-        <v>0.0007845264091583233</v>
+        <v>0.001132475927020783</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>1.73897153457121</v>
+        <v>1.907159333333333</v>
       </c>
       <c r="H30">
-        <v>1.73897153457121</v>
+        <v>5.721477999999999</v>
       </c>
       <c r="I30">
-        <v>0.07283110869151742</v>
+        <v>0.07344467639578636</v>
       </c>
       <c r="J30">
-        <v>0.07283110869151742</v>
+        <v>0.08173629676394162</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>95.10111512403751</v>
+        <v>98.61275733333333</v>
       </c>
       <c r="N30">
-        <v>95.10111512403751</v>
+        <v>295.838272</v>
       </c>
       <c r="O30">
-        <v>0.437643701150225</v>
+        <v>0.4452682614298567</v>
       </c>
       <c r="P30">
-        <v>0.437643701150225</v>
+        <v>0.5429357808085564</v>
       </c>
       <c r="Q30">
-        <v>165.3781321066808</v>
+        <v>188.0702405340018</v>
       </c>
       <c r="R30">
-        <v>165.3781321066808</v>
+        <v>1692.632164806016</v>
       </c>
       <c r="S30">
-        <v>0.03187407596663</v>
+        <v>0.03270258337003023</v>
       </c>
       <c r="T30">
-        <v>0.03187407596663</v>
+        <v>0.04437756010393053</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>1.73897153457121</v>
+        <v>1.907159333333333</v>
       </c>
       <c r="H31">
-        <v>1.73897153457121</v>
+        <v>5.721477999999999</v>
       </c>
       <c r="I31">
-        <v>0.07283110869151742</v>
+        <v>0.07344467639578636</v>
       </c>
       <c r="J31">
-        <v>0.07283110869151742</v>
+        <v>0.08173629676394162</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>1.68137581918618</v>
+        <v>1.696687</v>
       </c>
       <c r="N31">
-        <v>1.68137581918618</v>
+        <v>3.393374</v>
       </c>
       <c r="O31">
-        <v>0.007737485891447149</v>
+        <v>0.007661086568413697</v>
       </c>
       <c r="P31">
-        <v>0.007737485891447149</v>
+        <v>0.006227673484603961</v>
       </c>
       <c r="Q31">
-        <v>2.923864688481117</v>
+        <v>3.235852447795333</v>
       </c>
       <c r="R31">
-        <v>2.923864688481117</v>
+        <v>19.415114686772</v>
       </c>
       <c r="S31">
-        <v>0.0005635296759590699</v>
+        <v>0.0005626660238572494</v>
       </c>
       <c r="T31">
-        <v>0.0005635296759590699</v>
+        <v>0.0005090269680865197</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>6.59609232635657</v>
+        <v>6.5992195</v>
       </c>
       <c r="H32">
-        <v>6.59609232635657</v>
+        <v>13.198439</v>
       </c>
       <c r="I32">
-        <v>0.2762556531890644</v>
+        <v>0.254135840761214</v>
       </c>
       <c r="J32">
-        <v>0.2762556531890644</v>
+        <v>0.1885511972474212</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>117.640243767728</v>
+        <v>117.8215865</v>
       </c>
       <c r="N32">
-        <v>117.640243767728</v>
+        <v>235.643173</v>
       </c>
       <c r="O32">
-        <v>0.5413660146841967</v>
+        <v>0.532002292588051</v>
       </c>
       <c r="P32">
-        <v>0.5413660146841967</v>
+        <v>0.4324630118342522</v>
       </c>
       <c r="Q32">
-        <v>775.9659091870269</v>
+        <v>777.5305111517367</v>
       </c>
       <c r="R32">
-        <v>775.9659091870269</v>
+        <v>3110.122044606947</v>
       </c>
       <c r="S32">
-        <v>0.1495554220009434</v>
+        <v>0.1352008499137577</v>
       </c>
       <c r="T32">
-        <v>0.1495554220009434</v>
+        <v>0.08154141864657395</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>6.59609232635657</v>
+        <v>6.5992195</v>
       </c>
       <c r="H33">
-        <v>6.59609232635657</v>
+        <v>13.198439</v>
       </c>
       <c r="I33">
-        <v>0.2762556531890644</v>
+        <v>0.254135840761214</v>
       </c>
       <c r="J33">
-        <v>0.2762556531890644</v>
+        <v>0.1885511972474212</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>0.196268492051739</v>
+        <v>0.235393</v>
       </c>
       <c r="N33">
-        <v>0.196268492051739</v>
+        <v>0.706179</v>
       </c>
       <c r="O33">
-        <v>0.0009032035972308573</v>
+        <v>0.00106287497375686</v>
       </c>
       <c r="P33">
-        <v>0.0009032035972308573</v>
+        <v>0.001296011649079689</v>
       </c>
       <c r="Q33">
-        <v>1.294605094328051</v>
+        <v>1.5534100757635</v>
       </c>
       <c r="R33">
-        <v>1.294605094328051</v>
+        <v>9.320460454581001</v>
       </c>
       <c r="S33">
-        <v>0.0002495150997157232</v>
+        <v>0.0002701146250797529</v>
       </c>
       <c r="T33">
-        <v>0.0002495150997157232</v>
+        <v>0.0002443645480805801</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>6.59609232635657</v>
+        <v>6.5992195</v>
       </c>
       <c r="H34">
-        <v>6.59609232635657</v>
+        <v>13.198439</v>
       </c>
       <c r="I34">
-        <v>0.2762556531890644</v>
+        <v>0.254135840761214</v>
       </c>
       <c r="J34">
-        <v>0.2762556531890644</v>
+        <v>0.1885511972474212</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>0.342846141314817</v>
+        <v>0.5852593333333332</v>
       </c>
       <c r="N34">
-        <v>0.342846141314817</v>
+        <v>1.755778</v>
       </c>
       <c r="O34">
-        <v>0.001577736013025622</v>
+        <v>0.002642633802014605</v>
       </c>
       <c r="P34">
-        <v>0.001577736013025622</v>
+        <v>0.003222283218840886</v>
       </c>
       <c r="Q34">
-        <v>2.261444801847625</v>
+        <v>3.862254805090333</v>
       </c>
       <c r="R34">
-        <v>2.261444801847625</v>
+        <v>23.173528830542</v>
       </c>
       <c r="S34">
-        <v>0.0004358584928383033</v>
+        <v>0.0006715879630989853</v>
       </c>
       <c r="T34">
-        <v>0.0004358584928383033</v>
+        <v>0.0006075653587827233</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>6.59609232635657</v>
+        <v>6.5992195</v>
       </c>
       <c r="H35">
-        <v>6.59609232635657</v>
+        <v>13.198439</v>
       </c>
       <c r="I35">
-        <v>0.2762556531890644</v>
+        <v>0.254135840761214</v>
       </c>
       <c r="J35">
-        <v>0.2762556531890644</v>
+        <v>0.1885511972474212</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>2.34075291887126</v>
+        <v>2.51651</v>
       </c>
       <c r="N35">
-        <v>2.34075291887126</v>
+        <v>7.549530000000001</v>
       </c>
       <c r="O35">
-        <v>0.01077185866387472</v>
+        <v>0.01136285063790714</v>
       </c>
       <c r="P35">
-        <v>0.01077185866387472</v>
+        <v>0.01385523900466678</v>
       </c>
       <c r="Q35">
-        <v>15.43982236606346</v>
+        <v>16.607001863945</v>
       </c>
       <c r="R35">
-        <v>15.43982236606346</v>
+        <v>99.64201118367001</v>
       </c>
       <c r="S35">
-        <v>0.002975786851248993</v>
+        <v>0.002887707600308629</v>
       </c>
       <c r="T35">
-        <v>0.002975786851248993</v>
+        <v>0.002612421902479091</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>6.59609232635657</v>
+        <v>6.5992195</v>
       </c>
       <c r="H36">
-        <v>6.59609232635657</v>
+        <v>13.198439</v>
       </c>
       <c r="I36">
-        <v>0.2762556531890644</v>
+        <v>0.254135840761214</v>
       </c>
       <c r="J36">
-        <v>0.2762556531890644</v>
+        <v>0.1885511972474212</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>95.10111512403751</v>
+        <v>98.61275733333333</v>
       </c>
       <c r="N36">
-        <v>95.10111512403751</v>
+        <v>295.838272</v>
       </c>
       <c r="O36">
-        <v>0.437643701150225</v>
+        <v>0.4452682614298567</v>
       </c>
       <c r="P36">
-        <v>0.437643701150225</v>
+        <v>0.5429357808085564</v>
       </c>
       <c r="Q36">
-        <v>627.2957356976165</v>
+        <v>650.7672311429013</v>
       </c>
       <c r="R36">
-        <v>627.2957356976165</v>
+        <v>3904.603386857408</v>
       </c>
       <c r="S36">
-        <v>0.1209015465253351</v>
+        <v>0.1131586239827607</v>
       </c>
       <c r="T36">
-        <v>0.1209015465253351</v>
+        <v>0.1023711914999168</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>6.59609232635657</v>
+        <v>6.5992195</v>
       </c>
       <c r="H37">
-        <v>6.59609232635657</v>
+        <v>13.198439</v>
       </c>
       <c r="I37">
-        <v>0.2762556531890644</v>
+        <v>0.254135840761214</v>
       </c>
       <c r="J37">
-        <v>0.2762556531890644</v>
+        <v>0.1885511972474212</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>1.68137581918618</v>
+        <v>1.696687</v>
       </c>
       <c r="N37">
-        <v>1.68137581918618</v>
+        <v>3.393374</v>
       </c>
       <c r="O37">
-        <v>0.007737485891447149</v>
+        <v>0.007661086568413697</v>
       </c>
       <c r="P37">
-        <v>0.007737485891447149</v>
+        <v>0.006227673484603961</v>
       </c>
       <c r="Q37">
-        <v>11.09051013865545</v>
+        <v>11.1968099357965</v>
       </c>
       <c r="R37">
-        <v>11.09051013865545</v>
+        <v>44.78723974318601</v>
       </c>
       <c r="S37">
-        <v>0.002137524218982903</v>
+        <v>0.001946956676208259</v>
       </c>
       <c r="T37">
-        <v>0.002137524218982903</v>
+        <v>0.001174235291588096</v>
       </c>
     </row>
   </sheetData>
